--- a/Callibration_Output.xlsx
+++ b/Callibration_Output.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:S138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -380,20 +387,75 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Sample_Type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Belt_No</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Plot</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Trt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>GC n.</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>CH4_Input</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>N2O_Input</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CH4_Output</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>N2O_Output</t>
         </is>
@@ -412,16 +474,37 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1N500</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>3410948</v>
       </c>
-      <c r="F2">
+      <c r="P2">
         <v>133562</v>
       </c>
-      <c r="G2">
+      <c r="R2">
         <v>620.5786420737462</v>
       </c>
-      <c r="H2">
+      <c r="S2">
         <v>1.156197882687501</v>
       </c>
     </row>
@@ -438,16 +521,37 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1N500</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>3291526</v>
       </c>
-      <c r="F3">
+      <c r="P3">
         <v>136668</v>
       </c>
-      <c r="G3">
+      <c r="R3">
         <v>598.8494210115665</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>1.189789409628555</v>
       </c>
     </row>
@@ -464,16 +568,37 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10 M</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>60589</v>
       </c>
-      <c r="F4">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="R4">
         <v>10.96993221573368</v>
       </c>
-      <c r="H4">
+      <c r="S4">
         <v>-0.2882810359541604</v>
       </c>
     </row>
@@ -490,16 +615,37 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10N</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
         <v>5509</v>
       </c>
-      <c r="F5">
+      <c r="P5">
         <v>627157</v>
       </c>
-      <c r="G5">
+      <c r="R5">
         <v>0.9479471869712905</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>6.494449569895922</v>
       </c>
     </row>
@@ -516,16 +662,44 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K6">
+        <v>106</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
         <v>22651</v>
       </c>
-      <c r="F6">
+      <c r="P6">
         <v>51887</v>
       </c>
-      <c r="G6">
+      <c r="Q6">
+        <v>30.9</v>
+      </c>
+      <c r="R6">
         <v>4.066989804310523</v>
       </c>
-      <c r="H6">
+      <c r="S6">
         <v>0.2728791567021333</v>
       </c>
     </row>
@@ -542,16 +716,44 @@
       <c r="D7">
         <v>9.949999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K7">
+        <v>106</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>21</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
         <v>53521</v>
       </c>
-      <c r="F7">
+      <c r="P7">
         <v>52060</v>
       </c>
-      <c r="G7">
+      <c r="Q7">
+        <v>30.6</v>
+      </c>
+      <c r="R7">
         <v>9.683886642326044</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>0.2747501593295648</v>
       </c>
     </row>
@@ -568,16 +770,44 @@
       <c r="D8">
         <v>9.949999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K8">
+        <v>106</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
         <v>82839</v>
       </c>
-      <c r="F8">
+      <c r="P8">
         <v>51771</v>
       </c>
-      <c r="G8">
+      <c r="Q8">
+        <v>33.1</v>
+      </c>
+      <c r="R8">
         <v>15.0183920358129</v>
       </c>
-      <c r="H8">
+      <c r="S8">
         <v>0.2716246115877862</v>
       </c>
     </row>
@@ -594,16 +824,44 @@
       <c r="D9">
         <v>9.949999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K9">
+        <v>106</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>63</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
         <v>111045</v>
       </c>
-      <c r="F9">
+      <c r="P9">
         <v>52828</v>
       </c>
-      <c r="G9">
+      <c r="Q9">
+        <v>34.5</v>
+      </c>
+      <c r="R9">
         <v>20.15056541492096</v>
       </c>
-      <c r="H9">
+      <c r="S9">
         <v>0.28305611319007</v>
       </c>
     </row>
@@ -620,16 +878,44 @@
       <c r="D10">
         <v>0.299</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K10">
+        <v>107</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
         <v>20158</v>
       </c>
-      <c r="F10">
+      <c r="P10">
         <v>52845</v>
       </c>
-      <c r="G10">
+      <c r="Q10">
+        <v>32.4</v>
+      </c>
+      <c r="R10">
         <v>3.61338035121131</v>
       </c>
-      <c r="H10">
+      <c r="S10">
         <v>0.2832399689395864</v>
       </c>
     </row>
@@ -646,16 +932,44 @@
       <c r="D11">
         <v>0.299</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K11">
+        <v>107</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>21</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
         <v>83265</v>
       </c>
-      <c r="F11">
+      <c r="P11">
         <v>53632</v>
       </c>
-      <c r="G11">
+      <c r="Q11">
+        <v>31.7</v>
+      </c>
+      <c r="R11">
         <v>15.09590412045801</v>
       </c>
-      <c r="H11">
+      <c r="S11">
         <v>0.2917514086377864</v>
       </c>
     </row>
@@ -672,16 +986,44 @@
       <c r="D12">
         <v>0.299</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K12">
+        <v>107</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
         <v>132684</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>53493</v>
       </c>
-      <c r="G12">
+      <c r="Q12">
+        <v>34.2</v>
+      </c>
+      <c r="R12">
         <v>24.08785179904204</v>
       </c>
-      <c r="H12">
+      <c r="S12">
         <v>0.2902481175093876</v>
       </c>
     </row>
@@ -698,1095 +1040,3668 @@
       <c r="D13">
         <v>0.299</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K13">
+        <v>107</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>63</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
         <v>172111</v>
       </c>
-      <c r="F13">
+      <c r="P13">
         <v>53490</v>
       </c>
-      <c r="G13">
+      <c r="Q13">
+        <v>34.4</v>
+      </c>
+      <c r="R13">
         <v>31.26172260022241</v>
       </c>
-      <c r="H13">
+      <c r="S13">
         <v>0.2902156723771201</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>amb</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>transparent</t>
+        </is>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
         <v>9790</v>
       </c>
-      <c r="F14">
+      <c r="P14">
         <v>51599</v>
       </c>
-      <c r="G14">
+      <c r="R14">
         <v>1.726889051679566</v>
       </c>
-      <c r="H14">
+      <c r="S14">
         <v>0.2697644240044438</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K15">
+        <v>204</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
         <v>18313</v>
       </c>
-      <c r="F15">
+      <c r="P15">
         <v>52567</v>
       </c>
-      <c r="G15">
+      <c r="Q15">
+        <v>33.6</v>
+      </c>
+      <c r="R15">
         <v>3.277676604332831</v>
       </c>
-      <c r="H15">
+      <c r="S15">
         <v>0.280233386682789</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K16">
+        <v>204</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>21</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
         <v>64228</v>
       </c>
-      <c r="F16">
+      <c r="P16">
         <v>52333</v>
       </c>
-      <c r="G16">
+      <c r="Q16">
+        <v>33.5</v>
+      </c>
+      <c r="R16">
         <v>11.63206009372326</v>
       </c>
-      <c r="H16">
+      <c r="S16">
         <v>0.2777026663659162</v>
       </c>
     </row>
     <row r="17">
-      <c r="E17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K17">
+        <v>204</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>42</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17">
         <v>118503</v>
       </c>
-      <c r="F17">
+      <c r="P17">
         <v>52959</v>
       </c>
-      <c r="G17">
+      <c r="Q17">
+        <v>37.7</v>
+      </c>
+      <c r="R17">
         <v>21.50757275596144</v>
       </c>
-      <c r="H17">
+      <c r="S17">
         <v>0.2844728839657551</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K18">
+        <v>204</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>63</v>
+      </c>
+      <c r="N18">
+        <v>17</v>
+      </c>
+      <c r="O18">
         <v>152041</v>
       </c>
-      <c r="F18">
+      <c r="P18">
         <v>53043</v>
       </c>
-      <c r="G18">
+      <c r="Q18">
+        <v>38.1</v>
+      </c>
+      <c r="R18">
         <v>27.60992086588579</v>
       </c>
-      <c r="H18">
+      <c r="S18">
         <v>0.2853813476692478</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K19">
+        <v>209</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
         <v>22280</v>
       </c>
-      <c r="F19">
+      <c r="P19">
         <v>52484</v>
       </c>
-      <c r="G19">
+      <c r="Q19">
+        <v>27.1</v>
+      </c>
+      <c r="R19">
         <v>3.999485148434145</v>
       </c>
-      <c r="H19">
+      <c r="S19">
         <v>0.2793357380233854</v>
       </c>
     </row>
     <row r="20">
-      <c r="E20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K20">
+        <v>209</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>19</v>
+      </c>
+      <c r="O20">
         <v>90447</v>
       </c>
-      <c r="F20">
+      <c r="P20">
         <v>53003</v>
       </c>
-      <c r="G20">
+      <c r="Q20">
+        <v>35.1</v>
+      </c>
+      <c r="R20">
         <v>16.40269236440448</v>
       </c>
-      <c r="H20">
+      <c r="S20">
         <v>0.2849487459056799</v>
       </c>
     </row>
     <row r="21">
-      <c r="E21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K21">
+        <v>209</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M21">
+        <v>42</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
         <v>167305</v>
       </c>
-      <c r="F21">
+      <c r="P21">
         <v>52303</v>
       </c>
-      <c r="G21">
+      <c r="Q21">
+        <v>42.3</v>
+      </c>
+      <c r="R21">
         <v>30.3872552790853</v>
       </c>
-      <c r="H21">
+      <c r="S21">
         <v>0.2773782150432402</v>
       </c>
     </row>
     <row r="22">
-      <c r="E22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K22">
+        <v>209</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>63</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
         <v>229533</v>
       </c>
-      <c r="F22">
+      <c r="P22">
         <v>54549</v>
       </c>
-      <c r="G22">
+      <c r="Q22">
+        <v>40</v>
+      </c>
+      <c r="R22">
         <v>41.70984214128258</v>
       </c>
-      <c r="H22">
+      <c r="S22">
         <v>0.3016688040675823</v>
       </c>
     </row>
     <row r="23">
-      <c r="E23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10 M</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23">
         <v>55647</v>
       </c>
-      <c r="F23">
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="R23">
         <v>10.07071925255024</v>
       </c>
-      <c r="H23">
+      <c r="S23">
         <v>-0.2882810359541604</v>
       </c>
     </row>
     <row r="24">
-      <c r="E24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>33</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K24">
+        <v>302</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
         <v>18431</v>
       </c>
-      <c r="F24">
+      <c r="P24">
         <v>52364</v>
       </c>
-      <c r="G24">
+      <c r="Q24">
+        <v>28.3</v>
+      </c>
+      <c r="R24">
         <v>3.299147087873026</v>
       </c>
-      <c r="H24">
+      <c r="S24">
         <v>0.2780379327326814</v>
       </c>
     </row>
     <row r="25">
-      <c r="E25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K25">
+        <v>302</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25">
+        <v>24</v>
+      </c>
+      <c r="O25">
         <v>79980</v>
       </c>
-      <c r="F25">
+      <c r="P25">
         <v>54588</v>
       </c>
-      <c r="G25">
+      <c r="Q25">
+        <v>31.2</v>
+      </c>
+      <c r="R25">
         <v>14.49818769308901</v>
       </c>
-      <c r="H25">
+      <c r="S25">
         <v>0.3020905907870611</v>
       </c>
     </row>
     <row r="26">
-      <c r="E26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>35</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K26">
+        <v>302</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>42</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
         <v>136971</v>
       </c>
-      <c r="F26">
+      <c r="P26">
         <v>54080</v>
       </c>
-      <c r="G26">
+      <c r="Q26">
+        <v>32.1</v>
+      </c>
+      <c r="R26">
         <v>24.86788538325236</v>
       </c>
-      <c r="H26">
+      <c r="S26">
         <v>0.2965965483897477</v>
       </c>
     </row>
     <row r="27">
-      <c r="E27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>36</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K27">
+        <v>302</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>26</v>
+      </c>
+      <c r="O27">
         <v>187019</v>
       </c>
-      <c r="F27">
+      <c r="P27">
         <v>54715</v>
       </c>
-      <c r="G27">
+      <c r="Q27">
+        <v>32.9</v>
+      </c>
+      <c r="R27">
         <v>33.97428165630065</v>
       </c>
-      <c r="H27">
+      <c r="S27">
         <v>0.3034641013863895</v>
       </c>
     </row>
     <row r="28">
-      <c r="E28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>37</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K28">
+        <v>307</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28">
         <v>18802</v>
       </c>
-      <c r="F28">
+      <c r="P28">
         <v>54116</v>
       </c>
-      <c r="G28">
+      <c r="Q28">
+        <v>29</v>
+      </c>
+      <c r="R28">
         <v>3.366651743749403</v>
       </c>
-      <c r="H28">
+      <c r="S28">
         <v>0.296985889976959</v>
       </c>
     </row>
     <row r="29">
-      <c r="E29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K29">
+        <v>307</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>21</v>
+      </c>
+      <c r="N29">
+        <v>28</v>
+      </c>
+      <c r="O29">
         <v>111770</v>
       </c>
-      <c r="F29">
+      <c r="P29">
         <v>53901</v>
       </c>
-      <c r="G29">
+      <c r="Q29">
+        <v>30.4</v>
+      </c>
+      <c r="R29">
         <v>20.28248152141792</v>
       </c>
-      <c r="H29">
+      <c r="S29">
         <v>0.2946606554977811</v>
       </c>
     </row>
     <row r="30">
-      <c r="E30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K30">
+        <v>307</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>42</v>
+      </c>
+      <c r="N30">
+        <v>29</v>
+      </c>
+      <c r="O30">
         <v>164219</v>
       </c>
-      <c r="F30">
+      <c r="P30">
         <v>53529</v>
       </c>
-      <c r="G30">
+      <c r="Q30">
+        <v>32.6</v>
+      </c>
+      <c r="R30">
         <v>29.82574754853409</v>
       </c>
-      <c r="H30">
+      <c r="S30">
         <v>0.2906374590965988</v>
       </c>
     </row>
     <row r="31">
-      <c r="E31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44418</v>
+      </c>
+      <c r="K31">
+        <v>307</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>63</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
         <v>238616</v>
       </c>
-      <c r="F31">
+      <c r="P31">
         <v>53064</v>
       </c>
-      <c r="G31">
+      <c r="Q31">
+        <v>33</v>
+      </c>
+      <c r="R31">
         <v>43.3625235141266</v>
       </c>
-      <c r="H31">
+      <c r="S31">
         <v>0.285608463595121</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>41</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1N500</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="N32">
+        <v>31</v>
+      </c>
+      <c r="O32">
         <v>2732360</v>
       </c>
-      <c r="F32">
+      <c r="P32">
         <v>134932</v>
       </c>
-      <c r="G32">
+      <c r="R32">
         <v>497.1073498315928</v>
       </c>
-      <c r="H32">
+      <c r="S32">
         <v>1.171014493089705</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>42</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K33">
+        <v>106</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>32</v>
+      </c>
+      <c r="O33">
         <v>15818</v>
       </c>
-      <c r="F33">
+      <c r="P33">
         <v>53849</v>
       </c>
-      <c r="G33">
+      <c r="R33">
         <v>2.823703244732937</v>
       </c>
-      <c r="H33">
+      <c r="S33">
         <v>0.2940982732051427</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>43</v>
+      </c>
+      <c r="J34" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K34">
+        <v>106</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>33</v>
+      </c>
+      <c r="O34">
         <v>32697</v>
       </c>
-      <c r="F34">
+      <c r="P34">
         <v>53250</v>
       </c>
-      <c r="G34">
+      <c r="R34">
         <v>5.894892157232581</v>
       </c>
-      <c r="H34">
+      <c r="S34">
         <v>0.2876200617957122</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>44</v>
+      </c>
+      <c r="J35" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K35">
+        <v>106</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>42</v>
+      </c>
+      <c r="N35">
+        <v>34</v>
+      </c>
+      <c r="O35">
         <v>51798</v>
       </c>
-      <c r="F35">
+      <c r="P35">
         <v>53228</v>
       </c>
-      <c r="G35">
+      <c r="R35">
         <v>9.370381191989123</v>
       </c>
-      <c r="H35">
+      <c r="S35">
         <v>0.2873821308257498</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="J36" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K36">
+        <v>106</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>63</v>
+      </c>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="O36">
         <v>66125</v>
       </c>
-      <c r="F36">
+      <c r="P36">
         <v>54047</v>
       </c>
-      <c r="G36">
+      <c r="R36">
         <v>11.97722540961946</v>
       </c>
-      <c r="H36">
+      <c r="S36">
         <v>0.2962396519348042</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>46</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K37">
+        <v>107</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>36</v>
+      </c>
+      <c r="O37">
         <v>14201</v>
       </c>
-      <c r="F37">
+      <c r="P37">
         <v>53541</v>
       </c>
-      <c r="G37">
+      <c r="R37">
         <v>2.529484838932124</v>
       </c>
-      <c r="H37">
+      <c r="S37">
         <v>0.2907672396256692</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>47</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K38">
+        <v>107</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>21</v>
+      </c>
+      <c r="N38">
+        <v>37</v>
+      </c>
+      <c r="O38">
         <v>70635</v>
       </c>
-      <c r="F38">
+      <c r="P38">
         <v>54625</v>
       </c>
-      <c r="G38">
+      <c r="R38">
         <v>12.79783456865574</v>
       </c>
-      <c r="H38">
+      <c r="S38">
         <v>0.3024907474183615</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>48</v>
+      </c>
+      <c r="J39" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K39">
+        <v>107</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>42</v>
+      </c>
+      <c r="N39">
+        <v>38</v>
+      </c>
+      <c r="O39">
         <v>114738</v>
       </c>
-      <c r="F39">
+      <c r="P39">
         <v>53244</v>
       </c>
-      <c r="G39">
+      <c r="R39">
         <v>20.82251876842894</v>
       </c>
-      <c r="H39">
+      <c r="S39">
         <v>0.2875551715311769</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>49</v>
+      </c>
+      <c r="J40" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K40">
+        <v>107</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>63</v>
+      </c>
+      <c r="N40">
+        <v>39</v>
+      </c>
+      <c r="O40">
         <v>143537</v>
       </c>
-      <c r="F40">
+      <c r="P40">
         <v>52536</v>
       </c>
-      <c r="G40">
+      <c r="R40">
         <v>26.062590424989</v>
       </c>
-      <c r="H40">
+      <c r="S40">
         <v>0.2798981203160238</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10N</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="N41">
+        <v>40</v>
+      </c>
+      <c r="O41">
         <v>8232</v>
       </c>
-      <c r="F41">
+      <c r="P41">
         <v>381023</v>
       </c>
-      <c r="G41">
+      <c r="R41">
         <v>1.44340588764885</v>
       </c>
-      <c r="H41">
+      <c r="S41">
         <v>3.832499508044895</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>51</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K42">
+        <v>204</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>41</v>
+      </c>
+      <c r="O42">
         <v>15822</v>
       </c>
-      <c r="F42">
+      <c r="P42">
         <v>53409</v>
       </c>
-      <c r="G42">
+      <c r="R42">
         <v>2.8244310577343</v>
       </c>
-      <c r="H42">
+      <c r="S42">
         <v>0.2893396538058949</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>52</v>
+      </c>
+      <c r="J43" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K43">
+        <v>204</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>42</v>
+      </c>
+      <c r="O43">
         <v>56513</v>
       </c>
-      <c r="F43">
+      <c r="P43">
         <v>53781</v>
       </c>
-      <c r="G43">
+      <c r="R43">
         <v>10.22829076734524</v>
       </c>
-      <c r="H43">
+      <c r="S43">
         <v>0.2933628502070771</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>53</v>
+      </c>
+      <c r="J44" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K44">
+        <v>204</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+      <c r="N44">
+        <v>43</v>
+      </c>
+      <c r="O44">
         <v>105339</v>
       </c>
-      <c r="F44">
+      <c r="P44">
         <v>52979</v>
       </c>
-      <c r="G44">
+      <c r="R44">
         <v>19.11234016847727</v>
       </c>
-      <c r="H44">
+      <c r="S44">
         <v>0.2846891848475391</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>54</v>
+      </c>
+      <c r="J45" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K45">
+        <v>204</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M45">
+        <v>63</v>
+      </c>
+      <c r="N45">
+        <v>44</v>
+      </c>
+      <c r="O45">
         <v>150327</v>
       </c>
-      <c r="F45">
+      <c r="P45">
         <v>53320</v>
       </c>
-      <c r="G45">
+      <c r="R45">
         <v>27.29805299480194</v>
       </c>
-      <c r="H45">
+      <c r="S45">
         <v>0.2883771148819562</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>55</v>
+      </c>
+      <c r="J46" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K46">
+        <v>209</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>45</v>
+      </c>
+      <c r="O46">
         <v>13775</v>
       </c>
-      <c r="F46">
+      <c r="P46">
         <v>53809</v>
       </c>
-      <c r="G46">
+      <c r="R46">
         <v>2.451972754287012</v>
       </c>
-      <c r="H46">
+      <c r="S46">
         <v>0.2936656714415746</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>56</v>
+      </c>
+      <c r="J47" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K47">
+        <v>209</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>46</v>
+      </c>
+      <c r="O47">
         <v>67865</v>
       </c>
-      <c r="F47">
+      <c r="P47">
         <v>54241</v>
       </c>
-      <c r="G47">
+      <c r="R47">
         <v>12.29382406521217</v>
       </c>
-      <c r="H47">
+      <c r="S47">
         <v>0.2983377704881088</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>57</v>
+      </c>
+      <c r="J48" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K48">
+        <v>209</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M48">
+        <v>42</v>
+      </c>
+      <c r="N48">
+        <v>47</v>
+      </c>
+      <c r="O48">
         <v>113023</v>
       </c>
-      <c r="F48">
+      <c r="P48">
         <v>54188</v>
       </c>
-      <c r="G48">
+      <c r="R48">
         <v>20.51046894409474</v>
       </c>
-      <c r="H48">
+      <c r="S48">
         <v>0.2977645731513813</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>58</v>
+      </c>
+      <c r="J49" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K49">
+        <v>209</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M49">
+        <v>63</v>
+      </c>
+      <c r="N49">
+        <v>48</v>
+      </c>
+      <c r="O49">
         <v>159529</v>
       </c>
-      <c r="F49">
+      <c r="P49">
         <v>53636</v>
       </c>
-      <c r="G49">
+      <c r="R49">
         <v>28.97238680443649</v>
       </c>
-      <c r="H49">
+      <c r="S49">
         <v>0.2917946688141432</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>59</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>amb</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>transparent</t>
+        </is>
+      </c>
+      <c r="N50">
+        <v>49</v>
+      </c>
+      <c r="O50">
         <v>11386</v>
       </c>
-      <c r="F50">
+      <c r="P50">
         <v>55480</v>
       </c>
-      <c r="G50">
+      <c r="R50">
         <v>2.017286439223225</v>
       </c>
-      <c r="H50">
+      <c r="S50">
         <v>0.311737610114627</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
+      <c r="J51" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K51">
+        <v>302</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>50</v>
+      </c>
+      <c r="O51">
         <v>13760</v>
       </c>
-      <c r="F51">
+      <c r="P51">
         <v>54333</v>
       </c>
-      <c r="G51">
+      <c r="R51">
         <v>2.449243455531902</v>
       </c>
-      <c r="H51">
+      <c r="S51">
         <v>0.2993327545443152</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>61</v>
+      </c>
+      <c r="J52" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K52">
+        <v>302</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M52">
+        <v>21</v>
+      </c>
+      <c r="N52">
+        <v>51</v>
+      </c>
+      <c r="O52">
         <v>52127</v>
       </c>
-      <c r="F52">
+      <c r="P52">
         <v>54206</v>
       </c>
-      <c r="G52">
+      <c r="R52">
         <v>9.430243811351193</v>
       </c>
-      <c r="H52">
+      <c r="S52">
         <v>0.2979592439449869</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>62</v>
+      </c>
+      <c r="J53" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K53">
+        <v>302</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M53">
+        <v>42</v>
+      </c>
+      <c r="N53">
+        <v>52</v>
+      </c>
+      <c r="O53">
         <v>106058</v>
       </c>
-      <c r="F53">
+      <c r="P53">
         <v>52601</v>
       </c>
-      <c r="G53">
+      <c r="R53">
         <v>19.24316455547219</v>
       </c>
-      <c r="H53">
+      <c r="S53">
         <v>0.2806010981818217</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>63</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K54">
+        <v>302</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M54">
+        <v>63</v>
+      </c>
+      <c r="N54">
+        <v>53</v>
+      </c>
+      <c r="O54">
         <v>135781</v>
       </c>
-      <c r="F54">
+      <c r="P54">
         <v>52722</v>
       </c>
-      <c r="G54">
+      <c r="R54">
         <v>24.651361015347</v>
       </c>
-      <c r="H54">
+      <c r="S54">
         <v>0.2819097185166148</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>64</v>
+      </c>
+      <c r="J55" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K55">
+        <v>307</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>54</v>
+      </c>
+      <c r="O55">
         <v>14364</v>
       </c>
-      <c r="F55">
+      <c r="P55">
         <v>53282</v>
       </c>
-      <c r="G55">
+      <c r="R55">
         <v>2.559143218737648</v>
       </c>
-      <c r="H55">
+      <c r="S55">
         <v>0.2879661432065665</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>65</v>
+      </c>
+      <c r="J56" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K56">
+        <v>307</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M56">
+        <v>21</v>
+      </c>
+      <c r="N56">
+        <v>55</v>
+      </c>
+      <c r="O56">
         <v>91419</v>
       </c>
-      <c r="F56">
+      <c r="P56">
         <v>53805</v>
       </c>
-      <c r="G56">
+      <c r="R56">
         <v>16.57955092373558</v>
       </c>
-      <c r="H56">
+      <c r="S56">
         <v>0.2936224112652179</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>66</v>
+      </c>
+      <c r="J57" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K57">
+        <v>307</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M57">
+        <v>42</v>
+      </c>
+      <c r="N57">
+        <v>56</v>
+      </c>
+      <c r="O57">
         <v>169915</v>
       </c>
-      <c r="F57">
+      <c r="P57">
         <v>53666</v>
       </c>
-      <c r="G57">
+      <c r="R57">
         <v>30.86215326247437</v>
       </c>
-      <c r="H57">
+      <c r="S57">
         <v>0.2921191201368192</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>67</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44425</v>
+      </c>
+      <c r="K58">
+        <v>307</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M58">
+        <v>63</v>
+      </c>
+      <c r="N58">
+        <v>57</v>
+      </c>
+      <c r="O58">
         <v>233584</v>
       </c>
-      <c r="F58">
+      <c r="P58">
         <v>54866</v>
       </c>
-      <c r="G58">
+      <c r="R58">
         <v>42.4469347584125</v>
       </c>
-      <c r="H58">
+      <c r="S58">
         <v>0.3050971730438585</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>68</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10 M</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="N59">
+        <v>58</v>
+      </c>
+      <c r="O59">
         <v>56178</v>
       </c>
-      <c r="F59">
+      <c r="P59">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="R59">
         <v>10.16733642848112</v>
       </c>
-      <c r="H59">
+      <c r="S59">
         <v>-0.2882810359541604</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>69</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K60">
+        <v>106</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>59</v>
+      </c>
+      <c r="O60">
         <v>13221</v>
       </c>
-      <c r="F60">
+      <c r="P60">
         <v>55534</v>
       </c>
-      <c r="G60">
+      <c r="R60">
         <v>2.351170653598298</v>
       </c>
-      <c r="H60">
+      <c r="S60">
         <v>0.3123216224954438</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>70</v>
+      </c>
+      <c r="J61" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K61">
+        <v>106</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M61">
+        <v>21</v>
+      </c>
+      <c r="N61">
+        <v>60</v>
+      </c>
+      <c r="O61">
         <v>22899</v>
       </c>
-      <c r="F61">
+      <c r="P61">
         <v>53180</v>
       </c>
-      <c r="G61">
+      <c r="R61">
         <v>4.112114210395001</v>
       </c>
-      <c r="H61">
+      <c r="S61">
         <v>0.2868630087094682</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>71</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K62">
+        <v>106</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M62">
+        <v>42</v>
+      </c>
+      <c r="N62">
+        <v>61</v>
+      </c>
+      <c r="O62">
         <v>27695</v>
       </c>
-      <c r="F62">
+      <c r="P62">
         <v>52992</v>
       </c>
-      <c r="G62">
+      <c r="R62">
         <v>4.984761999028706</v>
       </c>
-      <c r="H62">
+      <c r="S62">
         <v>0.2848297804206987</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>72</v>
+      </c>
+      <c r="J63" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K63">
+        <v>106</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M63">
+        <v>63</v>
+      </c>
+      <c r="N63">
+        <v>62</v>
+      </c>
+      <c r="O63">
         <v>32570</v>
       </c>
-      <c r="F63">
+      <c r="P63">
         <v>53176</v>
       </c>
-      <c r="G63">
+      <c r="R63">
         <v>5.87178409443932</v>
       </c>
-      <c r="H63">
+      <c r="S63">
         <v>0.2868197485331114</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>73</v>
+      </c>
+      <c r="J64" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K64">
+        <v>107</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>63</v>
+      </c>
+      <c r="O64">
         <v>13334</v>
       </c>
-      <c r="F64">
+      <c r="P64">
         <v>52673</v>
       </c>
-      <c r="G64">
+      <c r="R64">
         <v>2.37173137088679</v>
       </c>
-      <c r="H64">
+      <c r="S64">
         <v>0.2813797813562441</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>74</v>
+      </c>
+      <c r="J65" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K65">
+        <v>107</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="N65">
+        <v>64</v>
+      </c>
+      <c r="O65">
         <v>36504</v>
       </c>
-      <c r="F65">
+      <c r="P65">
         <v>53263</v>
       </c>
-      <c r="G65">
+      <c r="R65">
         <v>6.587588181279393</v>
       </c>
-      <c r="H65">
+      <c r="S65">
         <v>0.2877606573688718</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>75</v>
+      </c>
+      <c r="J66" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K66">
+        <v>107</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M66">
+        <v>42</v>
+      </c>
+      <c r="N66">
+        <v>65</v>
+      </c>
+      <c r="O66">
         <v>57861</v>
       </c>
-      <c r="F66">
+      <c r="P66">
         <v>53390</v>
       </c>
-      <c r="G66">
+      <c r="R66">
         <v>10.47356374880442</v>
       </c>
-      <c r="H66">
+      <c r="S66">
         <v>0.2891341679682001</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>76</v>
+      </c>
+      <c r="J67" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K67">
+        <v>107</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M67">
+        <v>63</v>
+      </c>
+      <c r="N67">
+        <v>66</v>
+      </c>
+      <c r="O67">
         <v>75630</v>
       </c>
-      <c r="F67">
+      <c r="P67">
         <v>54622</v>
       </c>
-      <c r="G67">
+      <c r="R67">
         <v>13.70669105410723</v>
       </c>
-      <c r="H67">
+      <c r="S67">
         <v>0.3024583022860938</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>77</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1N500</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="N68">
+        <v>67</v>
+      </c>
+      <c r="O68">
         <v>11910</v>
       </c>
-      <c r="F68">
+      <c r="P68">
         <v>54101</v>
       </c>
-      <c r="G68">
+      <c r="R68">
         <v>2.11262994240172</v>
       </c>
-      <c r="H68">
+      <c r="S68">
         <v>0.2968236643156209</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>78</v>
+      </c>
+      <c r="J69" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K69">
+        <v>204</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>68</v>
+      </c>
+      <c r="O69">
         <v>12783</v>
       </c>
-      <c r="F69">
+      <c r="P69">
         <v>54599</v>
       </c>
-      <c r="G69">
+      <c r="R69">
         <v>2.271475129949098</v>
       </c>
-      <c r="H69">
+      <c r="S69">
         <v>0.3022095562720423</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>79</v>
+      </c>
+      <c r="J70" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K70">
+        <v>204</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>69</v>
+      </c>
+      <c r="O70">
         <v>33055</v>
       </c>
-      <c r="F70">
+      <c r="P70">
         <v>53693</v>
       </c>
-      <c r="G70">
+      <c r="R70">
         <v>5.96003142085453</v>
       </c>
-      <c r="H70">
+      <c r="S70">
         <v>0.2924111263272275</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>80</v>
+      </c>
+      <c r="J71" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K71">
+        <v>204</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M71">
+        <v>42</v>
+      </c>
+      <c r="N71">
+        <v>70</v>
+      </c>
+      <c r="O71">
         <v>48955</v>
       </c>
-      <c r="F71">
+      <c r="P71">
         <v>54065</v>
       </c>
-      <c r="G71">
+      <c r="R71">
         <v>8.853088101270687</v>
       </c>
-      <c r="H71">
+      <c r="S71">
         <v>0.2964343227284097</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>81</v>
+      </c>
+      <c r="J72" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K72">
+        <v>204</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M72">
+        <v>63</v>
+      </c>
+      <c r="N72">
+        <v>71</v>
+      </c>
+      <c r="O72">
         <v>63164</v>
       </c>
-      <c r="F72">
+      <c r="P72">
         <v>53868</v>
       </c>
-      <c r="G72">
+      <c r="R72">
         <v>11.43846183536083</v>
       </c>
-      <c r="H72">
+      <c r="S72">
         <v>0.2943037590428375</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>82</v>
+      </c>
+      <c r="J73" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K73">
+        <v>209</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>72</v>
+      </c>
+      <c r="O73">
         <v>13662</v>
       </c>
-      <c r="F73">
+      <c r="P73">
         <v>53603</v>
       </c>
-      <c r="G73">
+      <c r="R73">
         <v>2.431412036998519</v>
       </c>
-      <c r="H73">
+      <c r="S73">
         <v>0.2914377723591995</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>83</v>
+      </c>
+      <c r="J74" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K74">
+        <v>209</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M74">
+        <v>21</v>
+      </c>
+      <c r="N74">
+        <v>73</v>
+      </c>
+      <c r="O74">
         <v>46017</v>
       </c>
-      <c r="F74">
+      <c r="P74">
         <v>53105</v>
       </c>
-      <c r="G74">
+      <c r="R74">
         <v>8.31850945176989</v>
       </c>
-      <c r="H74">
+      <c r="S74">
         <v>0.2860518804027783</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>84</v>
+      </c>
+      <c r="J75" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K75">
+        <v>209</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M75">
+        <v>42</v>
+      </c>
+      <c r="N75">
+        <v>74</v>
+      </c>
+      <c r="O75">
         <v>69810</v>
       </c>
-      <c r="F75">
+      <c r="P75">
         <v>53305</v>
       </c>
-      <c r="G75">
+      <c r="R75">
         <v>12.64772313712471</v>
       </c>
-      <c r="H75">
+      <c r="S75">
         <v>0.2882148892206181</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>85</v>
+      </c>
+      <c r="J76" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K76">
+        <v>209</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M76">
+        <v>63</v>
+      </c>
+      <c r="N76">
+        <v>75</v>
+      </c>
+      <c r="O76">
         <v>88793</v>
       </c>
-      <c r="F76">
+      <c r="P76">
         <v>52476</v>
       </c>
-      <c r="G76">
+      <c r="R76">
         <v>16.10174168834106</v>
       </c>
-      <c r="H76">
+      <c r="S76">
         <v>0.2792492176706718</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>86</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10N</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="N77">
+        <v>76</v>
+      </c>
+      <c r="O77">
         <v>9752</v>
       </c>
-      <c r="F77">
+      <c r="P77">
         <v>294076</v>
       </c>
-      <c r="G77">
+      <c r="R77">
         <v>1.719974828166621</v>
       </c>
-      <c r="H77">
+      <c r="S77">
         <v>2.892163869621267</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>87</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K78">
+        <v>302</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>77</v>
+      </c>
+      <c r="O78">
         <v>12568</v>
       </c>
-      <c r="F78">
+      <c r="P78">
         <v>56816</v>
       </c>
-      <c r="G78">
+      <c r="R78">
         <v>2.232355181125861</v>
       </c>
-      <c r="H78">
+      <c r="S78">
         <v>0.3261865090177976</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>88</v>
+      </c>
+      <c r="J79" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K79">
+        <v>302</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M79">
+        <v>21</v>
+      </c>
+      <c r="N79">
+        <v>78</v>
+      </c>
+      <c r="O79">
         <v>32894</v>
       </c>
-      <c r="F79">
+      <c r="P79">
         <v>54453</v>
       </c>
-      <c r="G79">
+      <c r="R79">
         <v>5.930736947549687</v>
       </c>
-      <c r="H79">
+      <c r="S79">
         <v>0.3006305598350192</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>89</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K80">
+        <v>302</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M80">
+        <v>42</v>
+      </c>
+      <c r="N80">
+        <v>79</v>
+      </c>
+      <c r="O80">
         <v>48460</v>
       </c>
-      <c r="F80">
+      <c r="P80">
         <v>55141</v>
       </c>
-      <c r="G80">
+      <c r="R80">
         <v>8.763021242352071</v>
       </c>
-      <c r="H80">
+      <c r="S80">
         <v>0.3080713101683884</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="J81" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K81">
+        <v>302</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M81">
+        <v>63</v>
+      </c>
+      <c r="N81">
+        <v>80</v>
+      </c>
+      <c r="O81">
         <v>66129</v>
       </c>
-      <c r="F81">
+      <c r="P81">
         <v>55214</v>
       </c>
-      <c r="G81">
+      <c r="R81">
         <v>11.97795322262082</v>
       </c>
-      <c r="H81">
+      <c r="S81">
         <v>0.3088608083869</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>91</v>
+      </c>
+      <c r="J82" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K82">
+        <v>307</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>81</v>
+      </c>
+      <c r="O82">
         <v>13549</v>
       </c>
-      <c r="F82">
+      <c r="P82">
         <v>55167</v>
       </c>
-      <c r="G82">
+      <c r="R82">
         <v>2.410851319710027</v>
       </c>
-      <c r="H82">
+      <c r="S82">
         <v>0.3083525013147076</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>92</v>
+      </c>
+      <c r="J83" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K83">
+        <v>307</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M83">
+        <v>21</v>
+      </c>
+      <c r="N83">
+        <v>82</v>
+      </c>
+      <c r="O83">
         <v>53848</v>
       </c>
-      <c r="F83">
+      <c r="P83">
         <v>55397</v>
       </c>
-      <c r="G83">
+      <c r="R83">
         <v>9.743385355187433</v>
       </c>
-      <c r="H83">
+      <c r="S83">
         <v>0.3108399614552234</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>93</v>
+      </c>
+      <c r="J84" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K84">
+        <v>307</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M84">
+        <v>42</v>
+      </c>
+      <c r="N84">
+        <v>83</v>
+      </c>
+      <c r="O84">
         <v>88198</v>
       </c>
-      <c r="F84">
+      <c r="P84">
         <v>54452</v>
       </c>
-      <c r="G84">
+      <c r="R84">
         <v>15.99347950438838</v>
       </c>
-      <c r="H84">
+      <c r="S84">
         <v>0.3006197447909299</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>94</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44432</v>
+      </c>
+      <c r="K85">
+        <v>307</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="M85">
+        <v>63</v>
+      </c>
+      <c r="N85">
+        <v>84</v>
+      </c>
+      <c r="O85">
         <v>122806</v>
       </c>
-      <c r="F85">
+      <c r="P85">
         <v>55201</v>
       </c>
-      <c r="G85">
+      <c r="R85">
         <v>22.29051759217721</v>
       </c>
-      <c r="H85">
+      <c r="S85">
         <v>0.3087202128137404</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>95</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>amb</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>transparent</t>
+        </is>
+      </c>
+      <c r="N86">
+        <v>85</v>
+      </c>
+      <c r="O86">
         <v>10996</v>
       </c>
-      <c r="F86">
+      <c r="P86">
         <v>55827</v>
       </c>
-      <c r="G86">
+      <c r="R86">
         <v>1.946324671590376</v>
       </c>
-      <c r="H86">
+      <c r="S86">
         <v>0.3154904304135793</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>96</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10 M</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="N87">
+        <v>86</v>
+      </c>
+      <c r="O87">
         <v>30733</v>
       </c>
-      <c r="F87">
+      <c r="P87">
         <v>35175</v>
       </c>
-      <c r="G87">
+      <c r="R87">
         <v>5.537535973563567</v>
       </c>
-      <c r="H87">
+      <c r="S87">
         <v>0.09213813988343145</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>97</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1N500</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="N88">
+        <v>87</v>
+      </c>
+      <c r="O88">
         <v>759267</v>
       </c>
-      <c r="F88">
+      <c r="P88">
         <v>81834</v>
       </c>
-      <c r="G88">
+      <c r="R88">
         <v>138.0966652572306</v>
       </c>
-      <c r="H88">
+      <c r="S88">
         <v>0.5967572820413902</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>98</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10N</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="N89">
+        <v>88</v>
+      </c>
+      <c r="O89">
         <v>6493</v>
       </c>
-      <c r="F89">
+      <c r="P89">
         <v>536202</v>
       </c>
-      <c r="G89">
+      <c r="R89">
         <v>1.126989185306479</v>
       </c>
-      <c r="H89">
+      <c r="S89">
         <v>5.510767234762782</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>99</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>amb</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>transparent</t>
+        </is>
+      </c>
+      <c r="N90">
+        <v>89</v>
+      </c>
+      <c r="O90">
         <v>10154</v>
       </c>
-      <c r="F90">
+      <c r="P90">
         <v>53354</v>
       </c>
-      <c r="G90">
+      <c r="R90">
         <v>1.793120034803558</v>
       </c>
-      <c r="H90">
+      <c r="S90">
         <v>0.2887448263809889</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="N91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>101</v>
+      </c>
+      <c r="N92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>102</v>
+      </c>
+      <c r="N93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>103</v>
+      </c>
+      <c r="N94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>104</v>
+      </c>
+      <c r="N95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>105</v>
+      </c>
+      <c r="N96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>106</v>
+      </c>
+      <c r="N97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>107</v>
+      </c>
+      <c r="N98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>108</v>
+      </c>
+      <c r="N99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>109</v>
+      </c>
+      <c r="N100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>110</v>
+      </c>
+      <c r="N101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>111</v>
+      </c>
+      <c r="N102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>112</v>
+      </c>
+      <c r="N103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>113</v>
+      </c>
+      <c r="N104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>114</v>
+      </c>
+      <c r="N105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>115</v>
+      </c>
+      <c r="N106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>116</v>
+      </c>
+      <c r="N107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>117</v>
+      </c>
+      <c r="N108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>118</v>
+      </c>
+      <c r="N109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>119</v>
+      </c>
+      <c r="N110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>120</v>
+      </c>
+      <c r="N111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>121</v>
+      </c>
+      <c r="N112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>122</v>
+      </c>
+      <c r="N113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>123</v>
+      </c>
+      <c r="N114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>124</v>
+      </c>
+      <c r="N115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>125</v>
+      </c>
+      <c r="N116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>126</v>
+      </c>
+      <c r="N117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>127</v>
+      </c>
+      <c r="N118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>128</v>
+      </c>
+      <c r="N119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>129</v>
+      </c>
+      <c r="N120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>130</v>
+      </c>
+      <c r="N121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>131</v>
+      </c>
+      <c r="N122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>132</v>
+      </c>
+      <c r="N123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>133</v>
+      </c>
+      <c r="N124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>134</v>
+      </c>
+      <c r="N125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>135</v>
+      </c>
+      <c r="N126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>136</v>
+      </c>
+      <c r="N127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>137</v>
+      </c>
+      <c r="N128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>138</v>
+      </c>
+      <c r="N129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>139</v>
+      </c>
+      <c r="N130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>140</v>
+      </c>
+      <c r="N131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>141</v>
+      </c>
+      <c r="N132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>142</v>
+      </c>
+      <c r="N133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>143</v>
+      </c>
+      <c r="N134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>144</v>
+      </c>
+      <c r="N135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>145</v>
+      </c>
+      <c r="N136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>146</v>
+      </c>
+      <c r="N137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>147</v>
+      </c>
+      <c r="N138">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
